--- a/biology/Botanique/Callicarpe/Callicarpe.xlsx
+++ b/biology/Botanique/Callicarpe/Callicarpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicarpa
-Les Callicarpes[1] forment le genre Callicarpa : ce sont des arbustes de la famille des Lamiacées originaires d'Amérique du Nord ou d'Asie : Chine, Corée, Japon. Les horticulteurs apprécient notamment leurs baies décoratives de couleur rose, violet, mauve, plus rarement blanches, qui sont à l'origine de leur nom vernaculaire d'arbustes ou arbres aux bonbons bien qu'elles ne soient pas comestibles par les humains, car très astringentes.
+Les Callicarpes forment le genre Callicarpa : ce sont des arbustes de la famille des Lamiacées originaires d'Amérique du Nord ou d'Asie : Chine, Corée, Japon. Les horticulteurs apprécient notamment leurs baies décoratives de couleur rose, violet, mauve, plus rarement blanches, qui sont à l'origine de leur nom vernaculaire d'arbustes ou arbres aux bonbons bien qu'elles ne soient pas comestibles par les humains, car très astringentes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique Callicarpa vient du grec kalli « beau » et karpos « fruit », en référence à la beauté des fruits de cette plante[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique Callicarpa vient du grec kalli « beau » et karpos « fruit », en référence à la beauté des fruits de cette plante.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1753 par le naturaliste suédois Carl von Linné. Il était traditionnellement classé dans la famille des Verbénacées dans la classification de Cronquist, mais les recherches phylogénétiques récentes ont conduit à le positionner dans la famille des Lamiacées.
 Le genre comprend environ 150 espèces parmi lesquelles on peut citer :
@@ -591,9 +607,11 @@
           <t>Liste d'espèces et hybrides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (14 janvier 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (14 janvier 2014) :
 Callicarpa aculeolata Schauer (1847)
 Callicarpa acuminata Kunth (1818)
 Callicarpa acutidens Schauer (1847)
